--- a/biology/Botanique/Châtaignier_(pomme)/Châtaignier_(pomme).xlsx
+++ b/biology/Botanique/Châtaignier_(pomme)/Châtaignier_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_(pomme)</t>
+          <t>Châtaignier_(pomme)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme de Châtaignier est le fruit d'un cultivar de pommier domestique. Plusieurs pommes portent ce nom, des confusions existent...
 Ne pas confondre avec les variétés Châtaigne et Châtaignière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_(pomme)</t>
+          <t>Châtaignier_(pomme)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>De Chastignier[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De Chastignier.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_(pomme)</t>
+          <t>Châtaignier_(pomme)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Normandie, Ancienne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Normandie, Ancienne.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_(pomme)</t>
+          <t>Châtaignier_(pomme)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,14 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage : d'abord, pomme à cidre ; beignets, tartes, compotes.
 Calibre : moyen.
 Forme : sphérique, aplatie à la base, légèrement plus haute que large.
-Lenticelles : petites, allongées, clairsemées et d'une couleur roussâtre[2].
+Lenticelles : petites, allongées, clairsemées et d'une couleur roussâtre.
 Pour une description détaillée du fruit voir aussi les pomologies : Pomolopedia : Châtaignier, ...
 </t>
         </is>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_(pomme)</t>
+          <t>Châtaignier_(pomme)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>cultivar très fertile,
 Groupe de floraison: ???
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_(pomme)</t>
+          <t>Châtaignier_(pomme)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tavelure: ???
 Mildiou : ???
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ch%C3%A2taignier_(pomme)</t>
+          <t>Châtaignier_(pomme)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,9 +697,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Vigueur du cultivar : très faible[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vigueur du cultivar : très faible.
 Porte-greffe : préférer doucin à paradis.
 Consommation : décembre à avril.</t>
         </is>
